--- a/Assets/StreamingAssets/Excel/DialogueJournal/Conversation_NiceToMeetYou.xlsx
+++ b/Assets/StreamingAssets/Excel/DialogueJournal/Conversation_NiceToMeetYou.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
     <t>很高兴见到您，王总，真是久仰大名</t>
   </si>
   <si>
-    <t>aaaa</t>
+    <t>Nice to meet you, Mr. Wang. I've heard so much about you</t>
   </si>
   <si>
     <t>王国信</t>
@@ -64,7 +64,7 @@
     <t>约翰逊先生客气了，这边请</t>
   </si>
   <si>
-    <t>bbbbbbbb</t>
+    <t>Mr. Johnson, you're welcome. Please come over here</t>
   </si>
   <si>
     <t>选项</t>
@@ -76,7 +76,7 @@
     <t>下一步</t>
   </si>
   <si>
-    <t>cc</t>
+    <t>Continue</t>
   </si>
 </sst>
 </file>
@@ -755,6 +755,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1010,7 +1017,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
